--- a/store/utopia text scale calculator.xlsx
+++ b/store/utopia text scale calculator.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rich/github/clagnut/Clagnut.com/store/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FA5952-6BF5-D549-A5FC-45B4FA5772BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8348C1-5096-4D49-A0DC-7796166BE86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{4A548303-3003-5E44-873E-B6738E7999CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Utopia" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -48,6 +48,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -73,11 +80,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,15 +403,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD526EE5-2406-D94B-BA3F-3380B8E1C799}">
-  <dimension ref="A2:D15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="4">
+        <v>2022</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="G1" s="4">
+        <v>2023</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1.125</v>
       </c>
@@ -411,8 +434,18 @@
       <c r="D2">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="H2">
+        <f>((H3-G3)/(I3-G3)*(I2-G2))+G2</f>
+        <v>1.0959999999999999</v>
+      </c>
+      <c r="I2">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>320</v>
       </c>
@@ -422,145 +455,250 @@
       <c r="D3" s="3">
         <v>1920</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="G3" s="3">
+        <v>320</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1119.9999999999995</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <f>B5*$B$2</f>
+        <f>B5*B$2</f>
         <v>43.618336737155914</v>
       </c>
       <c r="C4" s="1">
-        <f>C5*$C$2</f>
+        <f>C5*C$2</f>
         <v>75.131584373069927</v>
       </c>
       <c r="D4" s="1">
-        <f>D5*$D$2</f>
+        <f>D5*D$2</f>
         <v>125.16975402832031</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G4" s="2">
+        <f>G5*G$2</f>
+        <v>28.560399418441694</v>
+      </c>
+      <c r="H4" s="2">
+        <f>H5*H$2</f>
+        <v>39.558337748192223</v>
+      </c>
+      <c r="I4" s="2">
+        <f>I5*I$2</f>
+        <v>53.881474792957306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <f>B6*$B$2</f>
+        <f>B6*B$2</f>
         <v>38.771854877471924</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C11" si="0">C6*$C$2</f>
+        <f>C6*C$2</f>
         <v>63.268702629953623</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D11" si="1">D6*$D$2</f>
+        <f>D6*D$2</f>
         <v>100.13580322265625</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G5" s="1">
+        <f>G6*G$2</f>
+        <v>26.767009764237766</v>
+      </c>
+      <c r="H5" s="1">
+        <f>H6*H$2</f>
+        <v>36.093373857839623</v>
+      </c>
+      <c r="I5" s="1">
+        <f>I6*I$2</f>
+        <v>47.894644260406494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <f>B7*$B$2</f>
+        <f>B7*B$2</f>
         <v>34.463871002197266</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
+        <f>C7*C$2</f>
         <v>53.278907477855682</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="1"/>
+        <f>D7*D$2</f>
         <v>80.108642578125</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G6" s="1">
+        <f>G7*G$2</f>
+        <v>25.086232206408404</v>
+      </c>
+      <c r="H6" s="1">
+        <f>H7*H$2</f>
+        <v>32.93191045423324</v>
+      </c>
+      <c r="I6" s="1">
+        <f>I7*I$2</f>
+        <v>42.573017120361328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <f>B8*$B$2</f>
+        <f>B8*B$2</f>
         <v>30.634552001953125</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
+        <f>C8*C$2</f>
         <v>44.866448402404785</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
+        <f>D8*D$2</f>
         <v>64.0869140625</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="G7" s="1">
+        <f>G8*G$2</f>
+        <v>23.510995507411813</v>
+      </c>
+      <c r="H7" s="1">
+        <f>H8*H$2</f>
+        <v>30.047363553132524</v>
+      </c>
+      <c r="I7" s="1">
+        <f>I8*I$2</f>
+        <v>37.842681884765625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <f>B9*$B$2</f>
+        <f>B9*B$2</f>
         <v>27.230712890625</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="0"/>
+        <f>C9*C$2</f>
         <v>37.782272338867188</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="1"/>
+        <f>D9*D$2</f>
         <v>51.26953125</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G8" s="2">
+        <f>G9*G$2</f>
+        <v>22.034672453056995</v>
+      </c>
+      <c r="H8" s="2">
+        <f>H9*H$2</f>
+        <v>27.415477694463984</v>
+      </c>
+      <c r="I8" s="2">
+        <f>I9*I$2</f>
+        <v>33.637939453125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <f>B10*$B$2</f>
+        <f>B10*B$2</f>
         <v>24.205078125</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
+        <f>C10*C$2</f>
         <v>31.816650390625</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="1"/>
+        <f>D10*D$2</f>
         <v>41.015625</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="G9" s="1">
+        <f>G10*G$2</f>
+        <v>20.651051970999998</v>
+      </c>
+      <c r="H9" s="1">
+        <f>H10*H$2</f>
+        <v>25.014121983999988</v>
+      </c>
+      <c r="I9" s="1">
+        <f>I10*I$2</f>
+        <v>29.900390625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" s="1">
-        <f>B11*$B$2</f>
+        <f>B11*B$2</f>
         <v>21.515625</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
+        <f>C11*C$2</f>
         <v>26.79296875</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="1"/>
+        <f>D11*D$2</f>
         <v>32.8125</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G10" s="2">
+        <f>G11*G$2</f>
+        <v>19.354312999999998</v>
+      </c>
+      <c r="H10" s="2">
+        <f>H11*H$2</f>
+        <v>22.823103999999994</v>
+      </c>
+      <c r="I10" s="2">
+        <f>I11*I$2</f>
+        <v>26.578125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <f>B12*$B$2</f>
+        <f>B12*B$2</f>
         <v>19.125</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
+        <f>C12*C$2</f>
         <v>22.5625</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
+        <f>D12*D$2</f>
         <v>26.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="G11" s="1">
+        <f>G12*G$2</f>
+        <v>18.138999999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <f>H12*H$2</f>
+        <v>20.823999999999998</v>
+      </c>
+      <c r="I11" s="1">
+        <f>I12*I$2</f>
+        <v>23.625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>0</v>
       </c>
       <c r="B12" s="2">
@@ -573,59 +711,103 @@
       <c r="D12" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="G12" s="2">
+        <v>17</v>
+      </c>
+      <c r="H12" s="2">
+        <f>(I12-G12)*(($C$3-$B$3)/($D$3-$B$3))+G12</f>
+        <v>19</v>
+      </c>
+      <c r="I12" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>-1</v>
       </c>
       <c r="B13" s="1">
-        <f>B12/$B$2</f>
+        <f>B12/B$2</f>
         <v>15.111111111111111</v>
       </c>
-      <c r="C13" s="1">
-        <f>C12/$C$2</f>
-        <v>16</v>
+      <c r="C13" s="5">
+        <v>16.8</v>
       </c>
       <c r="D13" s="1">
-        <f>D12/$D$2</f>
+        <f>D12/D$2</f>
         <v>16.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G13" s="2">
+        <f>G12/G$2</f>
+        <v>15.932521087160262</v>
+      </c>
+      <c r="H13" s="5">
+        <v>16.8</v>
+      </c>
+      <c r="I13" s="2">
+        <f>I12/I$2</f>
+        <v>18.666666666666668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-2</v>
       </c>
       <c r="B14" s="1">
-        <f>B13/$B$2</f>
+        <f>B13/B$2</f>
         <v>13.432098765432098</v>
       </c>
-      <c r="C14" s="1">
-        <f t="shared" ref="C14:C15" si="2">C13/$C$2</f>
-        <v>13.473684210526315</v>
+      <c r="C14" s="5">
+        <v>13.44</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ref="D14:D15" si="3">D13/$D$2</f>
+        <f>D13/D$2</f>
         <v>13.440000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G14" s="1">
+        <f>G13/G$2</f>
+        <v>14.932072246635673</v>
+      </c>
+      <c r="H14" s="5">
+        <v>13.44</v>
+      </c>
+      <c r="I14" s="1">
+        <f>I13/I$2</f>
+        <v>16.592592592592595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-3</v>
       </c>
       <c r="B15" s="1">
-        <f>B14/$B$2</f>
+        <f>B14/B$2</f>
         <v>11.939643347050755</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" si="2"/>
-        <v>11.346260387811634</v>
+      <c r="C15" s="5">
+        <v>10.75</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="3"/>
+        <f>D14/D$2</f>
         <v>10.752000000000001</v>
       </c>
+      <c r="G15" s="1">
+        <f>G14/G$2</f>
+        <v>13.994444467324906</v>
+      </c>
+      <c r="H15" s="5">
+        <v>10.75</v>
+      </c>
+      <c r="I15" s="1">
+        <f>I14/I$2</f>
+        <v>14.74897119341564</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>